--- a/Org/Sprint_Review_Protocol5.xlsx
+++ b/Org/Sprint_Review_Protocol5.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Studium\FHTechnikum\3. Semester\9_InnoLab\LocalRep\Org\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3F2593-B83B-4DBF-B8FC-7ED3E729CD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -122,49 +121,31 @@
     <t>Summe</t>
   </si>
   <si>
-    <t xml:space="preserve">Maybe: DICOM Import mit Android build Möglichkeit </t>
-  </si>
-  <si>
-    <t>Herz aus DICOM Daten segmentieren: (Aufgliederung siehe darunter)</t>
-  </si>
-  <si>
-    <t>Recherche zu Themen: Image/Herz Segmentierung, Watershed Algorithmus, MarchingNumPy</t>
-  </si>
-  <si>
-    <t>Maybe: Herzobjekt Darstellung in Unity optimieren</t>
-  </si>
-  <si>
-    <t>Vorhandene Tools recherchieren und testen</t>
-  </si>
-  <si>
-    <t>Maybe: Segmentierungstool mit VR Handtracking Projekt verknüpfen</t>
-  </si>
-  <si>
-    <t>55 bis 110</t>
-  </si>
-  <si>
-    <t>Machbarkeitsanalyse DICOM Bibliothek: können alle Requirements umgesetzt werden? (Anmerkung: einzelne Teile segmentieren bei einzelnen Objekt -&gt; careful)</t>
-  </si>
-  <si>
-    <t>DICOM auf Low level: beliebige Programmiersprache -&gt; schauen wie Datenformat funktioniert, welche Daten wir brauchen etc.</t>
-  </si>
-  <si>
-    <t>Requirement: DICOM Daten in beliebiger Programmiersprache rendern</t>
-  </si>
-  <si>
-    <t>Main goal: Anforderungen an die Bibliothek verstehen für Ziele des nächsten Semesters</t>
-  </si>
-  <si>
-    <t>Kompatibilität zwischen Unity + Quest + andere Programmiersprachen als C# checken</t>
-  </si>
-  <si>
-    <t>Grundlagen 3D rendering MarchingCubes anschauen (Bibliothek, die das verwendet anschauen) -&gt; wie kommt man von 2D auf 3D Daten</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Machbarkeitsanalyse DICOM Bibliothek (Akzeptanzkriterium: Wissen, ob alle Requirements umgesetzt werden können)</t>
+  </si>
+  <si>
+    <t>DICOM viewer in beliebige Programmiersprache studieren und Datenformat verstehen (Akzeptanzkriterium: Dokument mit Infos über DICOM)</t>
+  </si>
+  <si>
+    <t>Grundlagen 3D rendering MarchingCubes recherchieren (Akzeptanzkriterium: Dokument mit Infos über Grundlagen)</t>
+  </si>
+  <si>
+    <t>Kompatibilität zwischen Unity + Quest + andere Programmiersprachen als C# recherchieren (Akzeptanzkriterium: Liste an Programmiersprachen)</t>
+  </si>
+  <si>
+    <t>3D Slicer Segmentierung + Export für Unity testen (Akzeptanzkriterium: Vor- und Nachteile der Anwendung kennenlernen)</t>
+  </si>
+  <si>
+    <t>Felix Hadinger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,14 +179,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="5" tint="-0.499984740745262"/>
+      <color theme="3" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="3" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -790,11 +770,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -915,7 +895,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="23" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -1004,95 +984,115 @@
       <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="2" t="e">
+      <c r="C16" s="12">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2">
         <f>D16-C16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="11">
-        <v>25</v>
-      </c>
-      <c r="D17" s="7"/>
+      <c r="C17" s="12">
+        <v>15</v>
+      </c>
+      <c r="D17" s="12">
+        <v>14</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" ref="E17" si="0">D17-C17</f>
-        <v>-25</v>
-      </c>
-      <c r="F17" s="9"/>
+        <v>-1</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="11">
-        <v>30</v>
-      </c>
-      <c r="D18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="12">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E23" si="1">D18-C18</f>
-        <v>-30</v>
-      </c>
-      <c r="F18" s="9"/>
+        <v>-5</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="11">
-        <v>25</v>
-      </c>
-      <c r="D19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>-25</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>-1</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>5</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="11">
-        <v>30</v>
-      </c>
-      <c r="D20" s="7"/>
+      <c r="C20" s="12">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
+        <v>10</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>6</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>7</v>
       </c>
@@ -1122,79 +1122,60 @@
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="12">
-        <v>30</v>
-      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="7"/>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
-      <c r="K23" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="2">
-        <f>D26-C26</f>
-        <v>0</v>
-      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
-      <c r="K24" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="2">
-        <f>D27-C27</f>
-        <v>0</v>
-      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f>COUNT(A16:A25)</f>
         <v>7</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6" t="e">
-        <f>SUM(E16:E25)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="B26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="6">
+        <f>SUM(C16:C25)</f>
+        <v>51</v>
+      </c>
+      <c r="D26" s="6">
+        <f>SUM(D16:D25)</f>
+        <v>48</v>
+      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="6">
         <f>COUNT(F16:F25)</f>
         <v>0</v>
@@ -1205,36 +1186,14 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="6">
-        <f>SUM(C16:C21)</f>
-        <v>110</v>
-      </c>
-      <c r="D28" s="6">
-        <f>SUM(D16:D21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
